--- a/xlsx/多明尼加共和國_intext.xlsx
+++ b/xlsx/多明尼加共和國_intext.xlsx
@@ -29,7 +29,7 @@
     <t>多明尼加 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_多明尼加共和國</t>
+    <t>体育运动_体育运动_南非_多明尼加共和國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
@@ -11524,7 +11524,7 @@
         <v>576</v>
       </c>
       <c r="G295" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
